--- a/src/MIKE.xlsx
+++ b/src/MIKE.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
   <si>
     <t>MIKE_MBM_Worked</t>
   </si>
@@ -182,6 +182,12 @@
     <t>13:35:07 04-10-2023</t>
   </si>
   <si>
+    <t>08:37:51 04-11-2023</t>
+  </si>
+  <si>
+    <t>08:38:37 04-12-2023</t>
+  </si>
+  <si>
     <t>Manually Assigned Ticket</t>
   </si>
   <si>
@@ -212,13 +218,10 @@
     <t>15:01:33 03-30-2023</t>
   </si>
   <si>
-    <t>15:28:43 04-11-2023</t>
+    <t>14:54:20 04-10-2023</t>
   </si>
   <si>
     <t>Agent Created</t>
-  </si>
-  <si>
-    <t>Ticket Assignment Undone @ 15:28:50 04-11-2023</t>
   </si>
 </sst>
 </file>
@@ -580,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,7 +602,7 @@
         <v>44938.46167824074</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -607,7 +610,7 @@
         <v>44943.54186342593</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -615,7 +618,7 @@
         <v>44945.41439814815</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -623,7 +626,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -631,7 +634,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -639,7 +642,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -647,7 +650,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -655,7 +658,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -663,7 +666,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -671,7 +674,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -679,7 +682,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -687,7 +690,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -695,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -703,7 +706,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -711,7 +714,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -719,7 +722,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -727,7 +730,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -735,7 +738,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -743,7 +746,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -751,7 +754,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -759,7 +762,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -767,7 +770,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -775,7 +778,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -783,7 +786,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -791,7 +794,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -799,7 +802,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -807,7 +810,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -815,7 +818,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -823,7 +826,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -831,7 +834,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -839,7 +842,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -847,7 +850,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -855,7 +858,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -863,7 +866,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -871,7 +874,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -879,7 +882,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -887,7 +890,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -895,7 +898,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -903,7 +906,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -911,7 +914,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -919,7 +922,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -927,7 +930,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -935,7 +938,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -943,7 +946,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -951,7 +954,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -959,7 +962,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -967,7 +970,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -975,7 +978,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -983,7 +986,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -991,7 +994,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -999,7 +1002,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1007,7 +1010,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1015,7 +1018,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1023,7 +1026,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1031,7 +1034,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1039,7 +1042,23 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1057,7 +1076,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1068,71 +1087,71 @@
         <v>44945.41439814815</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/src/MIKE.xlsx
+++ b/src/MIKE.xlsx
@@ -1,16 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26405"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E27EC7F7-62A0-4E89-A30D-6C48C31A5C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MIKE_MBM_Worked" sheetId="1" r:id="rId1"/>
     <sheet name="MIKE_UET_Worked" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -23,6 +37,12 @@
     <t>Action</t>
   </si>
   <si>
+    <t>Manually Assigned Ticket</t>
+  </si>
+  <si>
+    <t>Automatically Assigned Ticket</t>
+  </si>
+  <si>
     <t>10:00:14 01-23-2023</t>
   </si>
   <si>
@@ -188,15 +208,12 @@
     <t>08:38:37 04-12-2023</t>
   </si>
   <si>
-    <t>Manually Assigned Ticket</t>
-  </si>
-  <si>
-    <t>Automatically Assigned Ticket</t>
-  </si>
-  <si>
     <t>MIKE_UET_Worked</t>
   </si>
   <si>
+    <t>Agent Created</t>
+  </si>
+  <si>
     <t>14:50:03 01-24-2023</t>
   </si>
   <si>
@@ -219,17 +236,14 @@
   </si>
   <si>
     <t>14:54:20 04-10-2023</t>
-  </si>
-  <si>
-    <t>Agent Created</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -295,6 +309,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -341,7 +363,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,9 +395,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,6 +447,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -582,12 +640,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E61" sqref="A60:E61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -599,466 +662,466 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>44938.46167824074</v>
+        <v>44938.461678240739</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>44943.54186342593</v>
+        <v>44943.541863425933</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>44945.41439814815</v>
+        <v>44945.414398148147</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1067,7 +1130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1084,74 +1147,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>44945.41439814815</v>
+        <v>44945.414398148147</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/MIKE.xlsx
+++ b/src/MIKE.xlsx
@@ -1,35 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E27EC7F7-62A0-4E89-A30D-6C48C31A5C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="MIKE_MBM_Worked" sheetId="1" r:id="rId1"/>
     <sheet name="MIKE_UET_Worked" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="70">
   <si>
     <t>MIKE_MBM_Worked</t>
   </si>
@@ -37,213 +23,216 @@
     <t>Action</t>
   </si>
   <si>
+    <t>10:00:14 01-23-2023</t>
+  </si>
+  <si>
+    <t>15:35:13 01-27-2023</t>
+  </si>
+  <si>
+    <t>10:00:37 01-30-2023</t>
+  </si>
+  <si>
+    <t>10:09:07 02-03-2023</t>
+  </si>
+  <si>
+    <t>09:53:26 02-06-2023</t>
+  </si>
+  <si>
+    <t>14:06:01 02-09-2023</t>
+  </si>
+  <si>
+    <t>09:48:37 02-10-2023</t>
+  </si>
+  <si>
+    <t>09:56:38 02-13-2023</t>
+  </si>
+  <si>
+    <t>15:32:37 02-14-2023</t>
+  </si>
+  <si>
+    <t>11:26:57 02-15-2023</t>
+  </si>
+  <si>
+    <t>09:53:59 02-17-2023</t>
+  </si>
+  <si>
+    <t>10:04:48 02-20-2023</t>
+  </si>
+  <si>
+    <t>09:58:12 02-22-2023</t>
+  </si>
+  <si>
+    <t>09:54:05 02-23-2023</t>
+  </si>
+  <si>
+    <t>16:52:05 02-24-2023</t>
+  </si>
+  <si>
+    <t>10:02:01 02-27-2023</t>
+  </si>
+  <si>
+    <t>10:06:37 02-27-2023</t>
+  </si>
+  <si>
+    <t>09:59:10 03-01-2023</t>
+  </si>
+  <si>
+    <t>15:33:11 03-02-2023</t>
+  </si>
+  <si>
+    <t>10:00:07 03-06-2023</t>
+  </si>
+  <si>
+    <t>09:58:07 03-07-2023</t>
+  </si>
+  <si>
+    <t>16:53:39 03-08-2023</t>
+  </si>
+  <si>
+    <t>10:25:24 03-10-2023</t>
+  </si>
+  <si>
+    <t>10:05:36 03-13-2023</t>
+  </si>
+  <si>
+    <t>10:08:17 03-13-2023</t>
+  </si>
+  <si>
+    <t>09:59:01 03-15-2023</t>
+  </si>
+  <si>
+    <t>09:59:21 03-16-2023</t>
+  </si>
+  <si>
+    <t>15:43:17 03-16-2023</t>
+  </si>
+  <si>
+    <t>10:03:21 03-17-2023</t>
+  </si>
+  <si>
+    <t>10:08:10 03-17-2023</t>
+  </si>
+  <si>
+    <t>13:32:32 03-17-2023</t>
+  </si>
+  <si>
+    <t>08:40:03 03-20-2023</t>
+  </si>
+  <si>
+    <t>08:52:42 03-20-2023</t>
+  </si>
+  <si>
+    <t>09:19:17 03-20-2023</t>
+  </si>
+  <si>
+    <t>08:29:53 03-22-2023</t>
+  </si>
+  <si>
+    <t>08:29:37 03-24-2023</t>
+  </si>
+  <si>
+    <t>08:34:09 03-24-2023</t>
+  </si>
+  <si>
+    <t>08:48:50 03-27-2023</t>
+  </si>
+  <si>
+    <t>12:36:04 03-27-2023</t>
+  </si>
+  <si>
+    <t>08:33:57 03-28-2023</t>
+  </si>
+  <si>
+    <t>08:44:41 03-28-2023</t>
+  </si>
+  <si>
+    <t>08:49:06 03-28-2023</t>
+  </si>
+  <si>
+    <t>08:53:51 03-28-2023</t>
+  </si>
+  <si>
+    <t>08:26:28 03-29-2023</t>
+  </si>
+  <si>
+    <t>15:12:13 03-30-2023</t>
+  </si>
+  <si>
+    <t>08:34:35 04-03-2023</t>
+  </si>
+  <si>
+    <t>08:39:34 04-03-2023</t>
+  </si>
+  <si>
+    <t>08:44:05 04-03-2023</t>
+  </si>
+  <si>
+    <t>08:29:49 04-04-2023</t>
+  </si>
+  <si>
+    <t>08:30:41 04-10-2023</t>
+  </si>
+  <si>
+    <t>08:40:41 04-10-2023</t>
+  </si>
+  <si>
+    <t>08:44:54 04-10-2023</t>
+  </si>
+  <si>
+    <t>13:35:07 04-10-2023</t>
+  </si>
+  <si>
+    <t>08:37:51 04-11-2023</t>
+  </si>
+  <si>
+    <t>08:38:37 04-12-2023</t>
+  </si>
+  <si>
+    <t>08:39:36 04-13-2023</t>
+  </si>
+  <si>
     <t>Manually Assigned Ticket</t>
   </si>
   <si>
     <t>Automatically Assigned Ticket</t>
   </si>
   <si>
-    <t>10:00:14 01-23-2023</t>
-  </si>
-  <si>
-    <t>15:35:13 01-27-2023</t>
-  </si>
-  <si>
-    <t>10:00:37 01-30-2023</t>
-  </si>
-  <si>
-    <t>10:09:07 02-03-2023</t>
-  </si>
-  <si>
-    <t>09:53:26 02-06-2023</t>
-  </si>
-  <si>
-    <t>14:06:01 02-09-2023</t>
-  </si>
-  <si>
-    <t>09:48:37 02-10-2023</t>
-  </si>
-  <si>
-    <t>09:56:38 02-13-2023</t>
-  </si>
-  <si>
-    <t>15:32:37 02-14-2023</t>
-  </si>
-  <si>
-    <t>11:26:57 02-15-2023</t>
-  </si>
-  <si>
-    <t>09:53:59 02-17-2023</t>
-  </si>
-  <si>
-    <t>10:04:48 02-20-2023</t>
-  </si>
-  <si>
-    <t>09:58:12 02-22-2023</t>
-  </si>
-  <si>
-    <t>09:54:05 02-23-2023</t>
-  </si>
-  <si>
-    <t>16:52:05 02-24-2023</t>
-  </si>
-  <si>
-    <t>10:02:01 02-27-2023</t>
-  </si>
-  <si>
-    <t>10:06:37 02-27-2023</t>
-  </si>
-  <si>
-    <t>09:59:10 03-01-2023</t>
-  </si>
-  <si>
-    <t>15:33:11 03-02-2023</t>
-  </si>
-  <si>
-    <t>10:00:07 03-06-2023</t>
-  </si>
-  <si>
-    <t>09:58:07 03-07-2023</t>
-  </si>
-  <si>
-    <t>16:53:39 03-08-2023</t>
-  </si>
-  <si>
-    <t>10:25:24 03-10-2023</t>
-  </si>
-  <si>
-    <t>10:05:36 03-13-2023</t>
-  </si>
-  <si>
-    <t>10:08:17 03-13-2023</t>
-  </si>
-  <si>
-    <t>09:59:01 03-15-2023</t>
-  </si>
-  <si>
-    <t>09:59:21 03-16-2023</t>
-  </si>
-  <si>
-    <t>15:43:17 03-16-2023</t>
-  </si>
-  <si>
-    <t>10:03:21 03-17-2023</t>
-  </si>
-  <si>
-    <t>10:08:10 03-17-2023</t>
-  </si>
-  <si>
-    <t>13:32:32 03-17-2023</t>
-  </si>
-  <si>
-    <t>08:40:03 03-20-2023</t>
-  </si>
-  <si>
-    <t>08:52:42 03-20-2023</t>
-  </si>
-  <si>
-    <t>09:19:17 03-20-2023</t>
-  </si>
-  <si>
-    <t>08:29:53 03-22-2023</t>
-  </si>
-  <si>
-    <t>08:29:37 03-24-2023</t>
-  </si>
-  <si>
-    <t>08:34:09 03-24-2023</t>
-  </si>
-  <si>
-    <t>08:48:50 03-27-2023</t>
-  </si>
-  <si>
-    <t>12:36:04 03-27-2023</t>
-  </si>
-  <si>
-    <t>08:33:57 03-28-2023</t>
-  </si>
-  <si>
-    <t>08:44:41 03-28-2023</t>
-  </si>
-  <si>
-    <t>08:49:06 03-28-2023</t>
-  </si>
-  <si>
-    <t>08:53:51 03-28-2023</t>
-  </si>
-  <si>
-    <t>08:26:28 03-29-2023</t>
-  </si>
-  <si>
-    <t>15:12:13 03-30-2023</t>
-  </si>
-  <si>
-    <t>08:34:35 04-03-2023</t>
-  </si>
-  <si>
-    <t>08:39:34 04-03-2023</t>
-  </si>
-  <si>
-    <t>08:44:05 04-03-2023</t>
-  </si>
-  <si>
-    <t>08:29:49 04-04-2023</t>
-  </si>
-  <si>
-    <t>08:30:41 04-10-2023</t>
-  </si>
-  <si>
-    <t>08:40:41 04-10-2023</t>
-  </si>
-  <si>
-    <t>08:44:54 04-10-2023</t>
-  </si>
-  <si>
-    <t>13:35:07 04-10-2023</t>
-  </si>
-  <si>
-    <t>08:37:51 04-11-2023</t>
-  </si>
-  <si>
-    <t>08:38:37 04-12-2023</t>
-  </si>
-  <si>
     <t>MIKE_UET_Worked</t>
   </si>
   <si>
+    <t>14:50:03 01-24-2023</t>
+  </si>
+  <si>
+    <t>15:21:21 02-13-2023</t>
+  </si>
+  <si>
+    <t>10:03:41 02-21-2023</t>
+  </si>
+  <si>
+    <t>10:17:31 03-06-2023</t>
+  </si>
+  <si>
+    <t>10:14:53 03-17-2023</t>
+  </si>
+  <si>
+    <t>12:01:01 03-23-2023</t>
+  </si>
+  <si>
+    <t>15:01:33 03-30-2023</t>
+  </si>
+  <si>
+    <t>14:54:20 04-10-2023</t>
+  </si>
+  <si>
     <t>Agent Created</t>
-  </si>
-  <si>
-    <t>14:50:03 01-24-2023</t>
-  </si>
-  <si>
-    <t>15:21:21 02-13-2023</t>
-  </si>
-  <si>
-    <t>10:03:41 02-21-2023</t>
-  </si>
-  <si>
-    <t>10:17:31 03-06-2023</t>
-  </si>
-  <si>
-    <t>10:14:53 03-17-2023</t>
-  </si>
-  <si>
-    <t>12:01:01 03-23-2023</t>
-  </si>
-  <si>
-    <t>15:01:33 03-30-2023</t>
-  </si>
-  <si>
-    <t>14:54:20 04-10-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -309,14 +298,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -363,7 +344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,27 +376,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,24 +410,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -640,17 +585,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="E61" sqref="A60:E61"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -662,466 +602,474 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>44938.461678240739</v>
+        <v>44938.46167824074</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>44943.541863425933</v>
+        <v>44943.54186342593</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>44945.414398148147</v>
+        <v>44945.41439814815</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1130,7 +1078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1139,7 +1087,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1147,10 +1095,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>44945.414398148147</v>
+        <v>44945.41439814815</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1158,7 +1106,7 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1166,7 +1114,7 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1174,7 +1122,7 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1182,7 +1130,7 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1190,7 +1138,7 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1198,7 +1146,7 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1206,7 +1154,7 @@
         <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1214,7 +1162,7 @@
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/src/MIKE.xlsx
+++ b/src/MIKE.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
   <si>
     <t>MIKE_MBM_Worked</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>08:39:36 04-13-2023</t>
+  </si>
+  <si>
+    <t>08:32:48 04-14-2023</t>
   </si>
   <si>
     <t>Manually Assigned Ticket</t>
@@ -586,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -605,7 +608,7 @@
         <v>44938.46167824074</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -613,7 +616,7 @@
         <v>44943.54186342593</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -621,7 +624,7 @@
         <v>44945.41439814815</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -629,7 +632,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -637,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -645,7 +648,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -653,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -661,7 +664,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -669,7 +672,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -677,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -685,7 +688,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -693,7 +696,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -701,7 +704,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -709,7 +712,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -717,7 +720,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -725,7 +728,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -733,7 +736,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -741,7 +744,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -749,7 +752,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -757,7 +760,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -765,7 +768,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -773,7 +776,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -781,7 +784,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -789,7 +792,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -797,7 +800,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -805,7 +808,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -813,7 +816,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -821,7 +824,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -829,7 +832,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -837,7 +840,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -845,7 +848,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -853,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -861,7 +864,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -869,7 +872,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -877,7 +880,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -885,7 +888,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -893,7 +896,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -901,7 +904,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -909,7 +912,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -917,7 +920,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -925,7 +928,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -933,7 +936,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -941,7 +944,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -949,7 +952,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -957,7 +960,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -965,7 +968,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -973,7 +976,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -981,7 +984,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -989,7 +992,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -997,7 +1000,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1005,7 +1008,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1013,7 +1016,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1021,7 +1024,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1029,7 +1032,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1037,7 +1040,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1045,7 +1048,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1053,7 +1056,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1061,7 +1064,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1069,7 +1072,15 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1087,7 +1098,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1098,71 +1109,71 @@
         <v>44945.41439814815</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
